--- a/data/Gaby-presion-JULIO 2020.xlsx
+++ b/data/Gaby-presion-JULIO 2020.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="16">
   <si>
     <t>Fecha</t>
   </si>
@@ -70,13 +70,16 @@
   <si>
     <t>Cardiologo</t>
   </si>
+  <si>
+    <t>MAPA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -110,8 +113,8 @@
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -203,7 +206,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent1"/>
               </a:solidFill>
@@ -228,9 +231,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Hoja1!$A$2:$C$31</c:f>
+              <c:f>Hoja1!$A$2:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="55"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>N</c:v>
@@ -320,6 +323,81 @@
                     <c:v>N</c:v>
                   </c:pt>
                   <c:pt idx="29">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>T</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
                     <c:v>M</c:v>
                   </c:pt>
                 </c:lvl>
@@ -414,6 +492,81 @@
                   <c:pt idx="29">
                     <c:v>08:30:00</c:v>
                   </c:pt>
+                  <c:pt idx="30">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>08:44:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>09:16:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>23:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>08:25:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>08:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>08:24:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>08:12:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>09:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10:50:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>08:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>08:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>18:37:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>23:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>08:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>08:30:00</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -505,6 +658,81 @@
                   </c:pt>
                   <c:pt idx="29">
                     <c:v>30/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>31/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>6/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>7/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>8/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>9/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>9/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>10/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>10/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>12/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>12/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>13/8/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -512,10 +740,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$2:$D$31</c:f>
+              <c:f>Hoja1!$D$2:$D$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>160</c:v>
                 </c:pt>
@@ -605,6 +833,81 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>160</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>147</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>137</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>118</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>134</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>143</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>129</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>142</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>133</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>132</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>130</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>124</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>140</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>131</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>148</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>129</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -612,7 +915,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-F35A-4D32-8F63-19FC7273E0D4}"/>
+              <c16:uniqueId val="{00000000-E9BC-44D1-8DBA-B00FBD45E157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -631,7 +934,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent2"/>
               </a:solidFill>
@@ -656,9 +959,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Hoja1!$A$2:$C$31</c:f>
+              <c:f>Hoja1!$A$2:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="55"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>N</c:v>
@@ -748,6 +1051,81 @@
                     <c:v>N</c:v>
                   </c:pt>
                   <c:pt idx="29">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>T</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
                     <c:v>M</c:v>
                   </c:pt>
                 </c:lvl>
@@ -842,6 +1220,81 @@
                   <c:pt idx="29">
                     <c:v>08:30:00</c:v>
                   </c:pt>
+                  <c:pt idx="30">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>08:44:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>09:16:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>23:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>08:25:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>08:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>08:24:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>08:12:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>09:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10:50:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>08:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>08:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>18:37:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>23:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>08:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>08:30:00</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -933,6 +1386,81 @@
                   </c:pt>
                   <c:pt idx="29">
                     <c:v>30/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>31/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>6/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>7/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>8/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>9/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>9/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>10/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>10/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>12/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>12/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>13/8/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -940,10 +1468,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$E$2:$E$31</c:f>
+              <c:f>Hoja1!$E$2:$E$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>100</c:v>
                 </c:pt>
@@ -1033,6 +1561,81 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>109</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>100</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1040,7 +1643,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-F35A-4D32-8F63-19FC7273E0D4}"/>
+              <c16:uniqueId val="{00000001-E9BC-44D1-8DBA-B00FBD45E157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1054,8 +1657,8 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1134298928"/>
-        <c:axId val="1134299760"/>
+        <c:axId val="907672016"/>
+        <c:axId val="907666608"/>
       </c:lineChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -1075,7 +1678,7 @@
             </c:strRef>
           </c:tx>
           <c:spPr>
-            <a:ln w="28575" cap="rnd">
+            <a:ln w="19050" cap="rnd">
               <a:solidFill>
                 <a:schemeClr val="accent3"/>
               </a:solidFill>
@@ -1100,9 +1703,9 @@
           </c:marker>
           <c:cat>
             <c:multiLvlStrRef>
-              <c:f>Hoja1!$A$2:$C$31</c:f>
+              <c:f>Hoja1!$A$2:$C$56</c:f>
               <c:multiLvlStrCache>
-                <c:ptCount val="30"/>
+                <c:ptCount val="55"/>
                 <c:lvl>
                   <c:pt idx="0">
                     <c:v>N</c:v>
@@ -1192,6 +1795,81 @@
                     <c:v>N</c:v>
                   </c:pt>
                   <c:pt idx="29">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>T</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>M</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>N</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
                     <c:v>M</c:v>
                   </c:pt>
                 </c:lvl>
@@ -1286,6 +1964,81 @@
                   <c:pt idx="29">
                     <c:v>08:30:00</c:v>
                   </c:pt>
+                  <c:pt idx="30">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>08:44:00</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>09:16:00</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>23:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>12:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>08:25:00</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>08:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>08:24:00</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>08:12:00</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>09:00:00</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>10:50:00</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>08:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>08:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>18:37:00</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>23:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>08:20:00</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>23:30:00</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>08:30:00</c:v>
+                  </c:pt>
                 </c:lvl>
                 <c:lvl>
                   <c:pt idx="0">
@@ -1377,6 +2130,81 @@
                   </c:pt>
                   <c:pt idx="29">
                     <c:v>30/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="30">
+                    <c:v>30/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="31">
+                    <c:v>31/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="32">
+                    <c:v>31/7/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="33">
+                    <c:v>1/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="34">
+                    <c:v>1/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="35">
+                    <c:v>2/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="36">
+                    <c:v>2/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="37">
+                    <c:v>3/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="38">
+                    <c:v>3/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="39">
+                    <c:v>4/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="40">
+                    <c:v>6/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="41">
+                    <c:v>7/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="42">
+                    <c:v>7/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="43">
+                    <c:v>8/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="44">
+                    <c:v>8/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="45">
+                    <c:v>9/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="46">
+                    <c:v>9/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="47">
+                    <c:v>10/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="48">
+                    <c:v>10/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="49">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="50">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="51">
+                    <c:v>11/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="52">
+                    <c:v>12/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="53">
+                    <c:v>12/8/2020</c:v>
+                  </c:pt>
+                  <c:pt idx="54">
+                    <c:v>13/8/2020</c:v>
                   </c:pt>
                 </c:lvl>
               </c:multiLvlStrCache>
@@ -1384,10 +2212,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$F$2:$F$31</c:f>
+              <c:f>Hoja1!$F$2:$F$56</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="30"/>
+                <c:ptCount val="55"/>
                 <c:pt idx="0">
                   <c:v>89</c:v>
                 </c:pt>
@@ -1477,6 +2305,81 @@
                 </c:pt>
                 <c:pt idx="29">
                   <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>66</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1484,7 +2387,7 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-F35A-4D32-8F63-19FC7273E0D4}"/>
+              <c16:uniqueId val="{00000002-E9BC-44D1-8DBA-B00FBD45E157}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1498,27 +2401,41 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="1226323504"/>
-        <c:axId val="1226317680"/>
+        <c:axId val="907681584"/>
+        <c:axId val="907682000"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="1134298928"/>
+        <c:axId val="907672016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
+        <c:majorTickMark val="cross"/>
         <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
+        <c:tickLblPos val="low"/>
         <c:spPr>
           <a:noFill/>
           <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
             <a:solidFill>
               <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:round/>
@@ -1545,15 +2462,17 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1134299760"/>
+        <c:crossAx val="907666608"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
+        <c:tickLblSkip val="20"/>
+        <c:tickMarkSkip val="20"/>
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="1134299760"/>
+        <c:axId val="907666608"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -1580,8 +2499,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1605,12 +2530,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1134298928"/>
+        <c:crossAx val="907672016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="1226317680"/>
+        <c:axId val="907682000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="50"/>
@@ -1623,8 +2548,14 @@
         <c:tickLblPos val="nextTo"/>
         <c:spPr>
           <a:noFill/>
-          <a:ln>
-            <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
           </a:ln>
           <a:effectLst/>
         </c:spPr>
@@ -1648,12 +2579,12 @@
             <a:endParaRPr lang="es-AR"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="1226323504"/>
+        <c:crossAx val="907681584"/>
         <c:crosses val="max"/>
         <c:crossBetween val="between"/>
       </c:valAx>
       <c:catAx>
-        <c:axId val="1226323504"/>
+        <c:axId val="907681584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1663,7 +2594,8 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="1226317680"/>
+        <c:crossAx val="907682000"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -1787,7 +2719,7 @@
 </file>
 
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -1814,8 +2746,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -1916,7 +2848,7 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
-      <a:ln w="28575" cap="rnd">
+      <a:ln w="19050" cap="rnd">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
@@ -1948,10 +2880,10 @@
     <cs:lnRef idx="0">
       <cs:styleClr val="auto"/>
     </cs:lnRef>
-    <cs:fillRef idx="1"/>
+    <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
+      <a:schemeClr val="dk1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:ln w="9525" cap="rnd">
@@ -1991,22 +2923,23 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
         </a:schemeClr>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
             <a:lumMod val="65000"/>
             <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:downBar>
@@ -2111,8 +3044,8 @@
       <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
           </a:schemeClr>
         </a:solidFill>
         <a:round/>
@@ -2244,19 +3177,20 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
+      <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
       <a:solidFill>
         <a:schemeClr val="lt1"/>
       </a:solidFill>
-      <a:ln w="9525">
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
         <a:solidFill>
           <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
           </a:schemeClr>
         </a:solidFill>
+        <a:round/>
       </a:ln>
     </cs:spPr>
   </cs:upBar>
@@ -2270,6 +3204,17 @@
         <a:lumOff val="35000"/>
       </a:schemeClr>
     </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
     <cs:defRPr sz="900" kern="1200"/>
   </cs:valueAxis>
   <cs:wall>
@@ -2293,20 +3238,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>128587</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>104775</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>14287</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>752475</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Gráfico 1"/>
+        <xdr:cNvPr id="4" name="Gráfico 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -2587,10 +3532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G31"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="A57" sqref="A57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3244,6 +4189,515 @@
         <v>72</v>
       </c>
     </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>44042</v>
+      </c>
+      <c r="B32" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D32">
+        <v>160</v>
+      </c>
+      <c r="E32">
+        <v>92</v>
+      </c>
+      <c r="F32">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B33" s="2">
+        <v>0.36388888888888887</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D33">
+        <v>137</v>
+      </c>
+      <c r="E33">
+        <v>87</v>
+      </c>
+      <c r="F33">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>44043</v>
+      </c>
+      <c r="B34" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34">
+        <v>148</v>
+      </c>
+      <c r="E34">
+        <v>85</v>
+      </c>
+      <c r="F34">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B35" s="2">
+        <v>0.38611111111111113</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D35">
+        <v>147</v>
+      </c>
+      <c r="E35">
+        <v>95</v>
+      </c>
+      <c r="F35">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>44044</v>
+      </c>
+      <c r="B36" s="2">
+        <v>0.95833333333333337</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>134</v>
+      </c>
+      <c r="E36">
+        <v>81</v>
+      </c>
+      <c r="F36">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B37" s="2">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37">
+        <v>133</v>
+      </c>
+      <c r="E37">
+        <v>86</v>
+      </c>
+      <c r="F37">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="1">
+        <v>44045</v>
+      </c>
+      <c r="B38" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D38">
+        <v>137</v>
+      </c>
+      <c r="E38">
+        <v>88</v>
+      </c>
+      <c r="F38">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B39" s="2">
+        <v>0.35069444444444442</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D39">
+        <v>118</v>
+      </c>
+      <c r="E39">
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="1">
+        <v>44046</v>
+      </c>
+      <c r="B40" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D40">
+        <v>136</v>
+      </c>
+      <c r="E40">
+        <v>96</v>
+      </c>
+      <c r="F40">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="1">
+        <v>44047</v>
+      </c>
+      <c r="B41" s="2">
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D41">
+        <v>134</v>
+      </c>
+      <c r="E41">
+        <v>89</v>
+      </c>
+      <c r="F41">
+        <v>77</v>
+      </c>
+      <c r="G41" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="1">
+        <v>44049</v>
+      </c>
+      <c r="B42" s="2">
+        <v>0.35000000000000003</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D42">
+        <v>132</v>
+      </c>
+      <c r="E42">
+        <v>87</v>
+      </c>
+      <c r="F42">
+        <v>77</v>
+      </c>
+      <c r="G42" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B43" s="2">
+        <v>0.34166666666666662</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43">
+        <v>130</v>
+      </c>
+      <c r="E43">
+        <v>85</v>
+      </c>
+      <c r="F43">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="1">
+        <v>44050</v>
+      </c>
+      <c r="B44" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D44">
+        <v>143</v>
+      </c>
+      <c r="E44">
+        <v>90</v>
+      </c>
+      <c r="F44">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B45" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D45">
+        <v>129</v>
+      </c>
+      <c r="E45">
+        <v>86</v>
+      </c>
+      <c r="F45">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="1">
+        <v>44051</v>
+      </c>
+      <c r="B46" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>142</v>
+      </c>
+      <c r="E46">
+        <v>82</v>
+      </c>
+      <c r="F46">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B47" s="2">
+        <v>0.4513888888888889</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D47">
+        <v>133</v>
+      </c>
+      <c r="E47">
+        <v>83</v>
+      </c>
+      <c r="F47">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="1">
+        <v>44052</v>
+      </c>
+      <c r="B48" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D48">
+        <v>132</v>
+      </c>
+      <c r="E48">
+        <v>92</v>
+      </c>
+      <c r="F48">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B49" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D49">
+        <v>130</v>
+      </c>
+      <c r="E49">
+        <v>90</v>
+      </c>
+      <c r="F49">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="1">
+        <v>44053</v>
+      </c>
+      <c r="B50" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D50">
+        <v>128</v>
+      </c>
+      <c r="E50">
+        <v>109</v>
+      </c>
+      <c r="F50">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B51" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D51">
+        <v>131</v>
+      </c>
+      <c r="E51">
+        <v>90</v>
+      </c>
+      <c r="F51">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B52" s="2">
+        <v>0.77569444444444446</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D52">
+        <v>124</v>
+      </c>
+      <c r="E52">
+        <v>100</v>
+      </c>
+      <c r="F52">
+        <v>76</v>
+      </c>
+      <c r="G52" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="1">
+        <v>44054</v>
+      </c>
+      <c r="B53" s="2">
+        <v>0.97222222222222221</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D53">
+        <v>140</v>
+      </c>
+      <c r="E53">
+        <v>90</v>
+      </c>
+      <c r="F53">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B54" s="2">
+        <v>0.34722222222222227</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D54">
+        <v>131</v>
+      </c>
+      <c r="E54">
+        <v>91</v>
+      </c>
+      <c r="F54">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="1">
+        <v>44055</v>
+      </c>
+      <c r="B55" s="2">
+        <v>0.97916666666666663</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D55">
+        <v>148</v>
+      </c>
+      <c r="E55">
+        <v>93</v>
+      </c>
+      <c r="F55">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="1">
+        <v>44056</v>
+      </c>
+      <c r="B56" s="2">
+        <v>0.35416666666666669</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D56">
+        <v>129</v>
+      </c>
+      <c r="E56">
+        <v>90</v>
+      </c>
+      <c r="F56">
+        <v>66</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
